--- a/data/trans_orig/P36B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>28964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19339</v>
+        <v>19441</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41168</v>
+        <v>43075</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06904999643134009</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04610434405033394</v>
+        <v>0.04634763952874566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09814426426172387</v>
+        <v>0.1026898074812356</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -763,19 +763,19 @@
         <v>32552</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23768</v>
+        <v>22379</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43981</v>
+        <v>45122</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08245670689896667</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06020534821031757</v>
+        <v>0.05668801167073432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1114051998528984</v>
+        <v>0.1142950596679176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -784,19 +784,19 @@
         <v>61516</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46412</v>
+        <v>47186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79083</v>
+        <v>78840</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07555016635871543</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05699990469103276</v>
+        <v>0.05795066977260976</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0971237273958678</v>
+        <v>0.09682604880048644</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>91667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75458</v>
+        <v>75558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110475</v>
+        <v>108702</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2185350795805557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1798913588218689</v>
+        <v>0.1801299049770598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2633714439709086</v>
+        <v>0.2591460233948443</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>92</v>
@@ -834,19 +834,19 @@
         <v>91407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75652</v>
+        <v>76767</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107691</v>
+        <v>109689</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2315377631079034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1916308104275724</v>
+        <v>0.1944543136912195</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2727855867738573</v>
+        <v>0.2778474400743045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -855,19 +855,19 @@
         <v>183074</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>160982</v>
+        <v>159951</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>207924</v>
+        <v>208884</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2248393592652506</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1977074375576177</v>
+        <v>0.1964407896389025</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2553581884717776</v>
+        <v>0.2565364481224834</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>186259</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>165639</v>
+        <v>166102</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>206364</v>
+        <v>208348</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4440417062492443</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3948835065262093</v>
+        <v>0.3959883190094483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4919718237318489</v>
+        <v>0.4967017930945236</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>196</v>
@@ -905,19 +905,19 @@
         <v>190202</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>172770</v>
+        <v>168971</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>208861</v>
+        <v>208388</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4817899115279317</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4376344741314474</v>
+        <v>0.4280097421365051</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5290539262828959</v>
+        <v>0.5278569082870457</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>370</v>
@@ -926,19 +926,19 @@
         <v>376461</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>349529</v>
+        <v>348185</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>406075</v>
+        <v>404122</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4623437162283077</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4292676664201219</v>
+        <v>0.4276168522123405</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4987135817021022</v>
+        <v>0.4963146374935895</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>99616</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82474</v>
+        <v>81227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118367</v>
+        <v>118021</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2374839890280095</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1966176281250393</v>
+        <v>0.1936448144596966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2821877815631723</v>
+        <v>0.2813623968446505</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -976,19 +976,19 @@
         <v>73572</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58695</v>
+        <v>59376</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89003</v>
+        <v>90664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1863606736429796</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1486768665677473</v>
+        <v>0.1504030030972207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2254483459285094</v>
+        <v>0.2296569205483608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -997,19 +997,19 @@
         <v>173188</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>147474</v>
+        <v>151007</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>196550</v>
+        <v>197222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2126971303831591</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1811171936341969</v>
+        <v>0.1854558809806724</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.241389694567594</v>
+        <v>0.2422140393590306</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>12957</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7006</v>
+        <v>7858</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21710</v>
+        <v>21261</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03088922871085039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01670323546782291</v>
+        <v>0.01873391135372142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05175616799783391</v>
+        <v>0.0506867745868045</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1047,19 +1047,19 @@
         <v>7049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3338</v>
+        <v>2970</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13892</v>
+        <v>14847</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01785494482221866</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008454600573651556</v>
+        <v>0.007523387014240364</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03519007352619743</v>
+        <v>0.03760931128872487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -1068,19 +1068,19 @@
         <v>20006</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12230</v>
+        <v>12746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30182</v>
+        <v>31181</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02456962776456725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01502017554787961</v>
+        <v>0.01565422329727218</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03706787904967104</v>
+        <v>0.03829378053018896</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>58390</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46096</v>
+        <v>45036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75154</v>
+        <v>75555</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09903324398179283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07818199908416563</v>
+        <v>0.07638395736946343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1274664583242154</v>
+        <v>0.1281470722056076</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1193,19 +1193,19 @@
         <v>59249</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44830</v>
+        <v>46664</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74833</v>
+        <v>72900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1053010202565532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07967548671745582</v>
+        <v>0.08293359586961953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1329973502949222</v>
+        <v>0.1295629246770175</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -1214,19 +1214,19 @@
         <v>117639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96308</v>
+        <v>99922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138174</v>
+        <v>139918</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1020938740781416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08358188953523396</v>
+        <v>0.08671806298431975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1199157384465087</v>
+        <v>0.1214290505413681</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>147179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126185</v>
+        <v>128254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>168343</v>
+        <v>168133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2496256499947761</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2140182978451592</v>
+        <v>0.2175272098459813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.285522276904287</v>
+        <v>0.2851656656743139</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>198</v>
@@ -1264,19 +1264,19 @@
         <v>194018</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172284</v>
+        <v>174003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>217710</v>
+        <v>217857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3448210530174823</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3061933250794004</v>
+        <v>0.3092486079134866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3869276689452828</v>
+        <v>0.3871896731396563</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>340</v>
@@ -1285,19 +1285,19 @@
         <v>341197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>312260</v>
+        <v>311433</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>373218</v>
+        <v>369823</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2961107035054775</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2709977779088302</v>
+        <v>0.2702797596460744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3239008726533545</v>
+        <v>0.3209543938507018</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>252851</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>228284</v>
+        <v>228452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>277099</v>
+        <v>276220</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4288533141785233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3871852880106156</v>
+        <v>0.3874700573659602</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4699800047571431</v>
+        <v>0.4684892027289395</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>250</v>
@@ -1335,19 +1335,19 @@
         <v>242573</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>218776</v>
+        <v>220579</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>265278</v>
+        <v>265916</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4311159805178738</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3888224258799974</v>
+        <v>0.3920274836076891</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4714693991395446</v>
+        <v>0.4726020000659886</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>494</v>
@@ -1356,19 +1356,19 @@
         <v>495424</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>464585</v>
+        <v>461137</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>530065</v>
+        <v>528173</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4299582012058568</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4031938353921403</v>
+        <v>0.4002018375102077</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.460021457572702</v>
+        <v>0.4583797742060227</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>119557</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100279</v>
+        <v>100694</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139211</v>
+        <v>139820</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2027777785912717</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1700809768803836</v>
+        <v>0.1707835090383951</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2361116173778491</v>
+        <v>0.2371451978389273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1406,19 +1406,19 @@
         <v>59305</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45921</v>
+        <v>46724</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75022</v>
+        <v>73573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1054009452029631</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08161424490582096</v>
+        <v>0.08304151462483746</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.133333127222765</v>
+        <v>0.1307587977898497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>175</v>
@@ -1427,19 +1427,19 @@
         <v>178863</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153868</v>
+        <v>154048</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204914</v>
+        <v>204508</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1552275065505253</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1335360336501464</v>
+        <v>0.133691740636206</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1778363409211124</v>
+        <v>0.1774839081736683</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>11621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6301</v>
+        <v>6050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20396</v>
+        <v>20453</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01971001325363601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01068655456424657</v>
+        <v>0.01026101995012411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03459330110930609</v>
+        <v>0.03468927968658161</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1477,19 +1477,19 @@
         <v>7518</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3656</v>
+        <v>3653</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14014</v>
+        <v>14410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01336100100512754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006498024802221884</v>
+        <v>0.006492797010795037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02490678832870357</v>
+        <v>0.02561026643073231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1498,19 +1498,19 @@
         <v>19139</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11723</v>
+        <v>12266</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30236</v>
+        <v>29108</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01660971465999889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01017368416212563</v>
+        <v>0.01064535482811432</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02624068679100453</v>
+        <v>0.02526148500097312</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>99505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81921</v>
+        <v>83172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118207</v>
+        <v>120665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1495420229233724</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1231155681378752</v>
+        <v>0.1249953483973221</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1776485918516711</v>
+        <v>0.1813421078119217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>135</v>
@@ -1623,19 +1623,19 @@
         <v>136172</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>118537</v>
+        <v>117195</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161548</v>
+        <v>157542</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2068007525752128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1800197749252597</v>
+        <v>0.17798157612991</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2453387831615625</v>
+        <v>0.2392545883478399</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>228</v>
@@ -1644,19 +1644,19 @@
         <v>235677</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>208861</v>
+        <v>206714</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>264612</v>
+        <v>265407</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1780215223350041</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1577654709434659</v>
+        <v>0.1561441334114719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1998782776612117</v>
+        <v>0.200478194340547</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>239543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>216770</v>
+        <v>216023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>265577</v>
+        <v>266506</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3599996243846093</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3257743393019496</v>
+        <v>0.3246521547333364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3991236994949028</v>
+        <v>0.4005209537709434</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>255</v>
@@ -1694,19 +1694,19 @@
         <v>255856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>232053</v>
+        <v>230589</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>279282</v>
+        <v>281301</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3885623703302111</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3524131639306878</v>
+        <v>0.3501896842813599</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4241380913520902</v>
+        <v>0.4272044878609186</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>481</v>
@@ -1715,19 +1715,19 @@
         <v>495400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>461014</v>
+        <v>458165</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>531600</v>
+        <v>528929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3742062390143526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3482327942924942</v>
+        <v>0.3460809403652775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4015504506707416</v>
+        <v>0.3995328633033882</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>247669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>222044</v>
+        <v>224680</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>273376</v>
+        <v>274040</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3722106357164391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3337012698500161</v>
+        <v>0.3376626863655474</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.410845014731788</v>
+        <v>0.4118426312401838</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>218</v>
@@ -1765,19 +1765,19 @@
         <v>213432</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>190917</v>
+        <v>188038</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>236952</v>
+        <v>236017</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3241341932148676</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2899413870735884</v>
+        <v>0.2855679631124991</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3598532555642183</v>
+        <v>0.3584327831858575</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>457</v>
@@ -1786,19 +1786,19 @@
         <v>461101</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>427780</v>
+        <v>426939</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>493238</v>
+        <v>495090</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.348298246736415</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3231288620207341</v>
+        <v>0.3224938910316629</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3725734909341339</v>
+        <v>0.3739720385874594</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>70333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56624</v>
+        <v>53027</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87792</v>
+        <v>85967</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1057002907730034</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08509831249879998</v>
+        <v>0.07969216959213046</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1319381349461484</v>
+        <v>0.1291961427835507</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1836,19 +1836,19 @@
         <v>48134</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35862</v>
+        <v>36989</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61775</v>
+        <v>63556</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07309924789925246</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05446329964426475</v>
+        <v>0.05617379996529394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.093815965980716</v>
+        <v>0.0965214629274999</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>118</v>
@@ -1857,19 +1857,19 @@
         <v>118466</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99499</v>
+        <v>98597</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141350</v>
+        <v>139679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08948509726474634</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07515792623998578</v>
+        <v>0.0744768069855732</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1067706250246678</v>
+        <v>0.1055084113947012</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>8349</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3779</v>
+        <v>3735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15707</v>
+        <v>17070</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01254742620257587</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005678592028331975</v>
+        <v>0.005613320452579847</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02360498565897995</v>
+        <v>0.02565418048061452</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1907,19 +1907,19 @@
         <v>4875</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1895</v>
+        <v>1925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11719</v>
+        <v>10847</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007403435980455952</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002878237124693208</v>
+        <v>0.002923891962182232</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01779714113034436</v>
+        <v>0.01647328688572731</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -1928,19 +1928,19 @@
         <v>13224</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7409</v>
+        <v>7008</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21877</v>
+        <v>22018</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009988894649482032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005596137925054818</v>
+        <v>0.005293656937914359</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01652543246705815</v>
+        <v>0.01663130528244482</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>179742</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154904</v>
+        <v>155778</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202958</v>
+        <v>202068</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2787032755123853</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2401896228298589</v>
+        <v>0.2415449325221492</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.314700560657441</v>
+        <v>0.3133211436438937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -2053,19 +2053,19 @@
         <v>198778</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176688</v>
+        <v>175605</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>225719</v>
+        <v>224361</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3078136821503155</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2736070428308031</v>
+        <v>0.2719294795167479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3495335600690785</v>
+        <v>0.3474300996775456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>343</v>
@@ -2074,19 +2074,19 @@
         <v>378520</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>345529</v>
+        <v>345147</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>414046</v>
+        <v>412735</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2932680625516884</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2677077346644881</v>
+        <v>0.2674115956640625</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3207924648061221</v>
+        <v>0.3197770507562451</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>224781</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>199842</v>
+        <v>201005</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250750</v>
+        <v>250740</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3485390930414617</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3098693761133202</v>
+        <v>0.3116724448341847</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3888059884061815</v>
+        <v>0.3887900921172391</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>223</v>
@@ -2124,19 +2124,19 @@
         <v>237323</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>212133</v>
+        <v>212595</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>261997</v>
+        <v>262108</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3675014349361153</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3284948487145415</v>
+        <v>0.329210732504009</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4057100388480532</v>
+        <v>0.4058817901996684</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>427</v>
@@ -2145,19 +2145,19 @@
         <v>462103</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>426824</v>
+        <v>425627</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>496745</v>
+        <v>501084</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3580265067659483</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.330693258943777</v>
+        <v>0.3297657556913632</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3848656087594775</v>
+        <v>0.3882278230275633</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>189975</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>165530</v>
+        <v>165922</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>213672</v>
+        <v>213446</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.294569331095303</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2566657479050346</v>
+        <v>0.2572737851354115</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.331313665567448</v>
+        <v>0.3309642190833464</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>161</v>
@@ -2195,19 +2195,19 @@
         <v>176479</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>154134</v>
+        <v>152637</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>202267</v>
+        <v>198836</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2732832696315793</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2386810596118268</v>
+        <v>0.236362480289267</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3132175616147343</v>
+        <v>0.3079043099975401</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>331</v>
@@ -2216,19 +2216,19 @@
         <v>366453</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>335579</v>
+        <v>334711</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>401229</v>
+        <v>402988</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2839192925719423</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2599987040013834</v>
+        <v>0.2593262637591702</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3108626341985089</v>
+        <v>0.3122251474651451</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>39753</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28687</v>
+        <v>28509</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53898</v>
+        <v>54416</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06163939119649831</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04448074972846065</v>
+        <v>0.04420507898651359</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08357204200720093</v>
+        <v>0.08437560362718965</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -2266,19 +2266,19 @@
         <v>26847</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17661</v>
+        <v>17574</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38544</v>
+        <v>39022</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04157373044153918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02734804309099933</v>
+        <v>0.02721438852107009</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05968659493122398</v>
+        <v>0.06042667691656933</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -2287,19 +2287,19 @@
         <v>66600</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52149</v>
+        <v>50543</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85326</v>
+        <v>84097</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05159995480751697</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04040378799667431</v>
+        <v>0.03915931251648372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0661082327195008</v>
+        <v>0.06515654063630494</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>10673</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5357</v>
+        <v>5255</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18768</v>
+        <v>18460</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01654890915435166</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008306822003235752</v>
+        <v>0.008148088174849716</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0291004816933567</v>
+        <v>0.02862291390800095</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2337,19 +2337,19 @@
         <v>6347</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2258</v>
+        <v>3012</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13010</v>
+        <v>13052</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009827882840450792</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003495908383392892</v>
+        <v>0.004664654966912183</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02014701019608844</v>
+        <v>0.02021209825634748</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2358,19 +2358,19 @@
         <v>17019</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9395</v>
+        <v>10327</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26841</v>
+        <v>27076</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01318618330290411</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00727925796050609</v>
+        <v>0.008001104135354466</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02079588862635122</v>
+        <v>0.02097810670615593</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>199750</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>175357</v>
+        <v>179079</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>221489</v>
+        <v>224460</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4246457233017598</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3727895454971119</v>
+        <v>0.3807026357319109</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4708605322768646</v>
+        <v>0.4771761576999642</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>210</v>
@@ -2483,19 +2483,19 @@
         <v>240114</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>214816</v>
+        <v>217796</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>263570</v>
+        <v>263631</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4844858269866653</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4334414577739265</v>
+        <v>0.439455319333699</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5318149619023558</v>
+        <v>0.5319378489942311</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>388</v>
@@ -2504,19 +2504,19 @@
         <v>439864</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>407814</v>
+        <v>409208</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>475684</v>
+        <v>472882</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4553467021346067</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4221685473614718</v>
+        <v>0.4236116960045226</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4924276446482445</v>
+        <v>0.4895269039975036</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>153865</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>132443</v>
+        <v>132404</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>177588</v>
+        <v>173867</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3270993179817389</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2815596672322965</v>
+        <v>0.2814755744181557</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3775312993423607</v>
+        <v>0.3696209584059419</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>142</v>
@@ -2554,19 +2554,19 @@
         <v>160942</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>140235</v>
+        <v>140140</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>183172</v>
+        <v>183287</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3247392832457031</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2829580677145104</v>
+        <v>0.282766353010079</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3695934263546633</v>
+        <v>0.3698252117422215</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>279</v>
@@ -2575,19 +2575,19 @@
         <v>314807</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>282262</v>
+        <v>287004</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>345169</v>
+        <v>345673</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3258885016225738</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.292197948438161</v>
+        <v>0.2971069814459418</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3573188530691492</v>
+        <v>0.3578409430305023</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>92105</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>75992</v>
+        <v>75447</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110203</v>
+        <v>112238</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1958052030292845</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1615509386090512</v>
+        <v>0.1603924971401636</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2342791267979002</v>
+        <v>0.2386044241336392</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>61</v>
@@ -2625,19 +2625,19 @@
         <v>72161</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>56103</v>
+        <v>58041</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>89167</v>
+        <v>90683</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.145601311031576</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1132003540310173</v>
+        <v>0.1171112778909398</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1799162584874122</v>
+        <v>0.1829738629832606</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>141</v>
@@ -2646,19 +2646,19 @@
         <v>164266</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>139597</v>
+        <v>139924</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>189848</v>
+        <v>192189</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1700480847986058</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1445107327285642</v>
+        <v>0.1448494418510545</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1965309308989825</v>
+        <v>0.1989543192755798</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>22631</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14706</v>
+        <v>14099</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34535</v>
+        <v>34939</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04811055988265286</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03126405368673327</v>
+        <v>0.02997221447298588</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07341654794923159</v>
+        <v>0.0742773926999882</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -2696,19 +2696,19 @@
         <v>22388</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14501</v>
+        <v>13122</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35457</v>
+        <v>34281</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04517357873605564</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02925924043733497</v>
+        <v>0.02647696641425955</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07154195646786869</v>
+        <v>0.0691707607282621</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>40</v>
@@ -2717,19 +2717,19 @@
         <v>45019</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32400</v>
+        <v>32042</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>61046</v>
+        <v>61329</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04660374103606559</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03354091969496759</v>
+        <v>0.03317037071080526</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06319435276505214</v>
+        <v>0.06348820427018341</v>
       </c>
     </row>
     <row r="32">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6629</v>
+        <v>7148</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004339195804563992</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01409189440855919</v>
+        <v>0.01519651398833799</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7119</v>
+        <v>7023</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002112970408148092</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00736968304781648</v>
+        <v>0.007270428214774645</v>
       </c>
     </row>
     <row r="33">
@@ -2884,19 +2884,19 @@
         <v>200787</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>181783</v>
+        <v>182605</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>218603</v>
+        <v>218813</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.604173107751207</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.546991085521939</v>
+        <v>0.549462569156005</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6577820391569047</v>
+        <v>0.6584141281881768</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>235</v>
@@ -2905,19 +2905,19 @@
         <v>252290</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>232246</v>
+        <v>234820</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>271218</v>
+        <v>271516</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6714357431441506</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6180911328745734</v>
+        <v>0.624942507371304</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7218103752784217</v>
+        <v>0.7226031894377682</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>430</v>
@@ -2926,19 +2926,19 @@
         <v>453077</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>426484</v>
+        <v>426788</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>479672</v>
+        <v>476716</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6398664500368944</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6023105460623199</v>
+        <v>0.6027394760380187</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6774261461157658</v>
+        <v>0.6732514039211265</v>
       </c>
     </row>
     <row r="35">
@@ -2955,19 +2955,19 @@
         <v>85757</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>70624</v>
+        <v>69873</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>103868</v>
+        <v>103736</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2580444156758088</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2125103428707525</v>
+        <v>0.2102512124959843</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3125430393937037</v>
+        <v>0.312144532868502</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>79</v>
@@ -2976,19 +2976,19 @@
         <v>83722</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>67648</v>
+        <v>66946</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>102724</v>
+        <v>100344</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.222815954351834</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1800372221598676</v>
+        <v>0.1781676848930683</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2733860883455778</v>
+        <v>0.2670532008160279</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>161</v>
@@ -2997,19 +2997,19 @@
         <v>169479</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>147903</v>
+        <v>149189</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>194149</v>
+        <v>193543</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2393502101798605</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.208878780458302</v>
+        <v>0.2106946932351968</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2741902891187196</v>
+        <v>0.2733345494547694</v>
       </c>
     </row>
     <row r="36">
@@ -3026,19 +3026,19 @@
         <v>33362</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24151</v>
+        <v>22346</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>45907</v>
+        <v>43947</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.100387552862385</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07267248884896012</v>
+        <v>0.06724001221948257</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1381342068891141</v>
+        <v>0.1322366724623729</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -3047,19 +3047,19 @@
         <v>28299</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>19200</v>
+        <v>18826</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>40636</v>
+        <v>40848</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07531496065035377</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05109739876043888</v>
+        <v>0.05010358619588944</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1081474560991352</v>
+        <v>0.1087115925587176</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>60</v>
@@ -3068,19 +3068,19 @@
         <v>61661</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>48078</v>
+        <v>47910</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>77967</v>
+        <v>78465</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08708262345268521</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06789894910606446</v>
+        <v>0.06766208589056574</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1101098025731152</v>
+        <v>0.1108132954582619</v>
       </c>
     </row>
     <row r="37">
@@ -3097,19 +3097,19 @@
         <v>11490</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5887</v>
+        <v>5913</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19890</v>
+        <v>19124</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0345724592232453</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01771268978678473</v>
+        <v>0.01779287798349518</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05985092630004198</v>
+        <v>0.05754499885443658</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3118,19 +3118,19 @@
         <v>11435</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5950</v>
+        <v>6082</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19775</v>
+        <v>19149</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03043334185366171</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01583437879105199</v>
+        <v>0.01618693919137423</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05262774491625627</v>
+        <v>0.05096348377217456</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -3139,19 +3139,19 @@
         <v>22925</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14945</v>
+        <v>14975</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>33596</v>
+        <v>34097</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03237601044941864</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02110676879081703</v>
+        <v>0.02114869458003973</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0474465978174568</v>
+        <v>0.04815470545654849</v>
       </c>
     </row>
     <row r="38">
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4730</v>
+        <v>4326</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.002822464487353846</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01423358191626274</v>
+        <v>0.01301839044782571</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4714</v>
+        <v>5641</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.001324705881141299</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.006657815547753067</v>
+        <v>0.007966880346845531</v>
       </c>
     </row>
     <row r="39">
@@ -3306,19 +3306,19 @@
         <v>182937</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>169538</v>
+        <v>168981</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>196105</v>
+        <v>195032</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7269283612842526</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6736858126156999</v>
+        <v>0.6714732378172044</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7792567305052369</v>
+        <v>0.7749902684131078</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>221</v>
@@ -3327,19 +3327,19 @@
         <v>290016</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>270533</v>
+        <v>269256</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>307926</v>
+        <v>309474</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.7472586316359461</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.697059979106191</v>
+        <v>0.6937696483908784</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.7934074520054509</v>
+        <v>0.7973951683274277</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>437</v>
@@ -3348,19 +3348,19 @@
         <v>472952</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>449303</v>
+        <v>448336</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>496038</v>
+        <v>496720</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.7392615246766925</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.7022955816333198</v>
+        <v>0.7007844591297784</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7753466641053774</v>
+        <v>0.7764124338272287</v>
       </c>
     </row>
     <row r="41">
@@ -3377,19 +3377,19 @@
         <v>49082</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>38603</v>
+        <v>38356</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>60707</v>
+        <v>61252</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.195035753162811</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1533954808861297</v>
+        <v>0.1524146016326121</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2412286073274015</v>
+        <v>0.2433942225719795</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>45</v>
@@ -3398,19 +3398,19 @@
         <v>61657</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>46211</v>
+        <v>45959</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>78634</v>
+        <v>79609</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1588652243527004</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1190687552531265</v>
+        <v>0.118417504644238</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2026101971907581</v>
+        <v>0.2051216570286492</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>104</v>
@@ -3419,19 +3419,19 @@
         <v>110739</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>91884</v>
+        <v>91282</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>131243</v>
+        <v>132970</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1730932490008391</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1436220385155429</v>
+        <v>0.142681383379459</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2051431139388715</v>
+        <v>0.2078422020294141</v>
       </c>
     </row>
     <row r="42">
@@ -3448,19 +3448,19 @@
         <v>10660</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5544</v>
+        <v>5791</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>17860</v>
+        <v>18225</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04235967366552974</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02203128425751031</v>
+        <v>0.02301144311582476</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07096829005951114</v>
+        <v>0.0724193220483855</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>20</v>
@@ -3469,19 +3469,19 @@
         <v>27600</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>17099</v>
+        <v>17836</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>40033</v>
+        <v>42151</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07111508333076917</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04405692216123118</v>
+        <v>0.04595549990356599</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1031501687371309</v>
+        <v>0.1086063796259432</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>32</v>
@@ -3490,19 +3490,19 @@
         <v>38260</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>26341</v>
+        <v>27713</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>53175</v>
+        <v>52796</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.05980386696364792</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04117383495001833</v>
+        <v>0.04331717058837589</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08311683314189229</v>
+        <v>0.08252384909573211</v>
       </c>
     </row>
     <row r="43">
@@ -3519,19 +3519,19 @@
         <v>8978</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4165</v>
+        <v>4703</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>16182</v>
+        <v>16516</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03567621188740662</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01655041024518749</v>
+        <v>0.01868799681691697</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06430131114244088</v>
+        <v>0.06562839256323325</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>7</v>
@@ -3540,19 +3540,19 @@
         <v>8834</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>3698</v>
+        <v>3919</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>17526</v>
+        <v>18029</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02276106068058439</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.009527505824436903</v>
+        <v>0.01009660734676265</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04515818426023396</v>
+        <v>0.04645261799085813</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>17</v>
@@ -3561,19 +3561,19 @@
         <v>17812</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>10093</v>
+        <v>11100</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>27575</v>
+        <v>29130</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02784135935882048</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01577542954634592</v>
+        <v>0.01735054204343019</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04310189624353659</v>
+        <v>0.04553286466295962</v>
       </c>
     </row>
     <row r="44">
@@ -3712,19 +3712,19 @@
         <v>950074</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>902462</v>
+        <v>900020</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1006746</v>
+        <v>1003908</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2816064742580003</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2674939834252215</v>
+        <v>0.2667700810767868</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2984044031092541</v>
+        <v>0.2975629893563195</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1079</v>
@@ -3733,19 +3733,19 @@
         <v>1209170</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1150766</v>
+        <v>1145411</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1269928</v>
+        <v>1263901</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3434025424249811</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3268156207024254</v>
+        <v>0.3252949423780541</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3606574700653378</v>
+        <v>0.358945797102861</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2000</v>
@@ -3754,19 +3754,19 @@
         <v>2159245</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2078706</v>
+        <v>2081151</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2235790</v>
+        <v>2235904</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3131649607575122</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3014841156721833</v>
+        <v>0.3018386450007376</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3242667127590652</v>
+        <v>0.3242831838892518</v>
       </c>
     </row>
     <row r="47">
@@ -3783,19 +3783,19 @@
         <v>991874</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>940255</v>
+        <v>942029</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1053123</v>
+        <v>1047663</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2939962157012802</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2786961363918242</v>
+        <v>0.2792217643495844</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3121506987965655</v>
+        <v>0.3105323157004933</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1034</v>
@@ -3804,19 +3804,19 @@
         <v>1084925</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1028189</v>
+        <v>1029842</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1140330</v>
+        <v>1140982</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3081171351379859</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2920040155043136</v>
+        <v>0.2924736351275082</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3238520546781878</v>
+        <v>0.3240372258562959</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1969</v>
@@ -3825,19 +3825,19 @@
         <v>2076800</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1992995</v>
+        <v>1998276</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2153100</v>
+        <v>2156663</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3012075943313867</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2890530909888865</v>
+        <v>0.2898189520196033</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3122738488603824</v>
+        <v>0.3127905257131768</v>
       </c>
     </row>
     <row r="48">
@@ -3854,19 +3854,19 @@
         <v>1012881</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>963113</v>
+        <v>961547</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1070266</v>
+        <v>1068594</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3002226705510283</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2854711404096202</v>
+        <v>0.2850069720474419</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3172319792558432</v>
+        <v>0.3167364031632703</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>933</v>
@@ -3875,19 +3875,19 @@
         <v>950747</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>899169</v>
+        <v>901402</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1004651</v>
+        <v>1008222</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2700106402542993</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2553626970539248</v>
+        <v>0.2559968039174605</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2853192794615344</v>
+        <v>0.2863334755695775</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1885</v>
@@ -3896,19 +3896,19 @@
         <v>1963628</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1885188</v>
+        <v>1894005</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2035355</v>
+        <v>2034384</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2847937609371378</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2734172937940065</v>
+        <v>0.2746961353609518</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2951967647308293</v>
+        <v>0.2950558397325695</v>
       </c>
     </row>
     <row r="49">
@@ -3925,19 +3925,19 @@
         <v>372357</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>338878</v>
+        <v>335075</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>413399</v>
+        <v>408870</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1103684566826233</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1004449871629577</v>
+        <v>0.09931783666305929</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1225333904614193</v>
+        <v>0.1211910286176097</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>247</v>
@@ -3946,19 +3946,19 @@
         <v>250515</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>224861</v>
+        <v>222928</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>280752</v>
+        <v>283803</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.07114590842414353</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0638602085823049</v>
+        <v>0.06331110025180055</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.07973326937694054</v>
+        <v>0.08059974150447172</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>607</v>
@@ -3967,19 +3967,19 @@
         <v>622872</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>575920</v>
+        <v>575445</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>671844</v>
+        <v>673859</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.09033798716558246</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.08352827668042528</v>
+        <v>0.08345931941159175</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.09744055138624003</v>
+        <v>0.0977328358712862</v>
       </c>
     </row>
     <row r="50">
@@ -3996,19 +3996,19 @@
         <v>46579</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>34349</v>
+        <v>35599</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>61623</v>
+        <v>64173</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01380618280706789</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01018106146353589</v>
+        <v>0.01055171458947692</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01826527385883132</v>
+        <v>0.01902123597673076</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>26</v>
@@ -4017,19 +4017,19 @@
         <v>25788</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>17156</v>
+        <v>16731</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>38956</v>
+        <v>37472</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.007323773758590055</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.00487217570896484</v>
+        <v>0.004751710025196219</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01106341375033448</v>
+        <v>0.01064207930502975</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>71</v>
@@ -4038,19 +4038,19 @@
         <v>72367</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>57399</v>
+        <v>57653</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>89556</v>
+        <v>90596</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01049569680838082</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.008324780265313865</v>
+        <v>0.008361644167075253</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01298865462295319</v>
+        <v>0.01313954843010969</v>
       </c>
     </row>
     <row r="51">
@@ -4385,19 +4385,19 @@
         <v>29249</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14079</v>
+        <v>16332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47991</v>
+        <v>52690</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0717252725106808</v>
+        <v>0.07172527251068081</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03452535333307585</v>
+        <v>0.04004922127994018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1176859029325305</v>
+        <v>0.1292089276656879</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -4406,19 +4406,19 @@
         <v>29124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17447</v>
+        <v>17564</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45767</v>
+        <v>47529</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08067267265880146</v>
+        <v>0.08067267265880147</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04832845250918495</v>
+        <v>0.04865150169672127</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.12677201956049</v>
+        <v>0.131653467616329</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -4427,19 +4427,19 @@
         <v>58373</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38360</v>
+        <v>39807</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83037</v>
+        <v>84702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07592677144426582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04989587454890842</v>
+        <v>0.05177703209601246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.108007123221207</v>
+        <v>0.1101731847094475</v>
       </c>
     </row>
     <row r="5">
@@ -4456,19 +4456,19 @@
         <v>117961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90729</v>
+        <v>91110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149824</v>
+        <v>147709</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2892665325128687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2224890079533808</v>
+        <v>0.2234219959604619</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3674028008044159</v>
+        <v>0.3622150989746696</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -4477,19 +4477,19 @@
         <v>139954</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115982</v>
+        <v>114044</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>163076</v>
+        <v>165238</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3876682936738311</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3212668161564474</v>
+        <v>0.3158990701393215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4517160928736224</v>
+        <v>0.4577043428290607</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -4498,19 +4498,19 @@
         <v>257915</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>222606</v>
+        <v>222082</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>298203</v>
+        <v>296598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3354737980577667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.289546864283289</v>
+        <v>0.2888651856713327</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3878761164108233</v>
+        <v>0.385788905998437</v>
       </c>
     </row>
     <row r="6">
@@ -4527,19 +4527,19 @@
         <v>207207</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>174007</v>
+        <v>174000</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>237978</v>
+        <v>238144</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5081179203750995</v>
+        <v>0.5081179203750996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4267050582084917</v>
+        <v>0.4266865539511453</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5835763906898948</v>
+        <v>0.5839826055429115</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>82</v>
@@ -4548,19 +4548,19 @@
         <v>151146</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126766</v>
+        <v>123484</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>176545</v>
+        <v>179123</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4186685826966212</v>
+        <v>0.4186685826966213</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3511384208886037</v>
+        <v>0.3420467498588365</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4890247459053272</v>
+        <v>0.4961648334654553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>167</v>
@@ -4569,19 +4569,19 @@
         <v>358353</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>318432</v>
+        <v>320133</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>400183</v>
+        <v>400503</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4661145126092188</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4141884547487689</v>
+        <v>0.4164016961042164</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5205230130665611</v>
+        <v>0.5209391082211192</v>
       </c>
     </row>
     <row r="7">
@@ -4598,19 +4598,19 @@
         <v>48920</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30940</v>
+        <v>29064</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71660</v>
+        <v>73954</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1199636794841223</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07587194415027375</v>
+        <v>0.07127087083705669</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1757262557426354</v>
+        <v>0.1813526203453201</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -4619,19 +4619,19 @@
         <v>36492</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23019</v>
+        <v>22836</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53380</v>
+        <v>53462</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1010811022407646</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06376257607965624</v>
+        <v>0.06325385176926659</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1478612627821424</v>
+        <v>0.1480879588332693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -4640,19 +4640,19 @@
         <v>85412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64023</v>
+        <v>63423</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114594</v>
+        <v>115330</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1110968436616551</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08327503483952686</v>
+        <v>0.08249529014691474</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1490538130695926</v>
+        <v>0.1500108772972458</v>
       </c>
     </row>
     <row r="8">
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17273</v>
+        <v>17302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0109265951172288</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0423576967573014</v>
+        <v>0.04242922929312651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14056</v>
+        <v>13852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0119093487299816</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03893368815931818</v>
+        <v>0.03836994189363508</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -4711,19 +4711,19 @@
         <v>8755</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2163</v>
+        <v>2205</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20659</v>
+        <v>21733</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01138807422709347</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002813854567100844</v>
+        <v>0.002868341932056772</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02687123888860216</v>
+        <v>0.02826848407333453</v>
       </c>
     </row>
     <row r="9">
@@ -4815,19 +4815,19 @@
         <v>38882</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25306</v>
+        <v>25807</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56994</v>
+        <v>56057</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08153276771010554</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05306529405513989</v>
+        <v>0.05411528091277526</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1195119661702472</v>
+        <v>0.1175463156683838</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -4836,19 +4836,19 @@
         <v>74037</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58921</v>
+        <v>58337</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93701</v>
+        <v>93794</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1477547337353341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1175866193879022</v>
+        <v>0.1164221888328086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1869978001644283</v>
+        <v>0.1871833283501178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -4857,19 +4857,19 @@
         <v>112920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91256</v>
+        <v>91545</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137450</v>
+        <v>138133</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1154628407423189</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09331098655544924</v>
+        <v>0.09360650812046217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.140546060573357</v>
+        <v>0.1412440853719786</v>
       </c>
     </row>
     <row r="11">
@@ -4886,19 +4886,19 @@
         <v>181424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>156414</v>
+        <v>154351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>207866</v>
+        <v>207852</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3804320048598916</v>
+        <v>0.3804320048598915</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3279882859141491</v>
+        <v>0.3236610244554322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4358772980118421</v>
+        <v>0.4358489440381237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -4907,19 +4907,19 @@
         <v>235824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212921</v>
+        <v>210999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258977</v>
+        <v>258865</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4706280988632727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4249217731771525</v>
+        <v>0.4210852048018479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5168338204184924</v>
+        <v>0.5166107767457498</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>348</v>
@@ -4928,19 +4928,19 @@
         <v>417248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>380955</v>
+        <v>383414</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>454309</v>
+        <v>453216</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4266456744387923</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3895351196902355</v>
+        <v>0.3920494944620357</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4645416118346494</v>
+        <v>0.4634240808209582</v>
       </c>
     </row>
     <row r="12">
@@ -4957,19 +4957,19 @@
         <v>187708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>160601</v>
+        <v>162657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>216682</v>
+        <v>218281</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3936093363005471</v>
+        <v>0.3936093363005472</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3367670618506067</v>
+        <v>0.3410793193464622</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4543657007186789</v>
+        <v>0.4577187151627688</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>153</v>
@@ -4978,19 +4978,19 @@
         <v>173699</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>152554</v>
+        <v>152200</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>195863</v>
+        <v>197789</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3466481319652215</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.304447944294917</v>
+        <v>0.3037417883337419</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3908802672182414</v>
+        <v>0.3947224967934913</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>268</v>
@@ -4999,19 +4999,19 @@
         <v>361408</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>327154</v>
+        <v>324829</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>399712</v>
+        <v>397140</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3695478777178881</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3345221134924838</v>
+        <v>0.3321451220847569</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4087144442885943</v>
+        <v>0.4060845413043677</v>
       </c>
     </row>
     <row r="13">
@@ -5028,19 +5028,19 @@
         <v>60434</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42555</v>
+        <v>43459</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80163</v>
+        <v>81473</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1267246866374053</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08923443053177871</v>
+        <v>0.09112971256511963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1680960559584755</v>
+        <v>0.1708418322459194</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5049,19 +5049,19 @@
         <v>17522</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9939</v>
+        <v>10334</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27819</v>
+        <v>27110</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03496903543617154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01983503886452255</v>
+        <v>0.02062298653865783</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05551743856719057</v>
+        <v>0.05410286316179245</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -5070,19 +5070,19 @@
         <v>77956</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55927</v>
+        <v>58800</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100407</v>
+        <v>103176</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07971194851981313</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05718681414526799</v>
+        <v>0.06012448714650958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1026683082492043</v>
+        <v>0.1055002301107849</v>
       </c>
     </row>
     <row r="14">
@@ -5099,19 +5099,19 @@
         <v>8442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2993</v>
+        <v>3023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19317</v>
+        <v>19984</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01770120449205052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006275884920880219</v>
+        <v>0.006339853342084833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04050623986275442</v>
+        <v>0.0419041622630262</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -5133,19 +5133,19 @@
         <v>8442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2892</v>
+        <v>2969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18810</v>
+        <v>20650</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008631658581187569</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002957048831865056</v>
+        <v>0.003035853788018962</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01923323717710416</v>
+        <v>0.02111524838468524</v>
       </c>
     </row>
     <row r="15">
@@ -5237,19 +5237,19 @@
         <v>99729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80387</v>
+        <v>82077</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119865</v>
+        <v>120443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1606357503996248</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1294822460365108</v>
+        <v>0.1322029938659847</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1930702719156755</v>
+        <v>0.1940015205293751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -5258,19 +5258,19 @@
         <v>127394</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>112053</v>
+        <v>110199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145232</v>
+        <v>144887</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2053196022860961</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1805942446704078</v>
+        <v>0.1776061450402413</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2340680888045347</v>
+        <v>0.2335131966521019</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>257</v>
@@ -5279,19 +5279,19 @@
         <v>227123</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>204962</v>
+        <v>202463</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>255525</v>
+        <v>255306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1829710366914789</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1651183383071772</v>
+        <v>0.1631047773693544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.205851635811316</v>
+        <v>0.2056754614738667</v>
       </c>
     </row>
     <row r="17">
@@ -5308,19 +5308,19 @@
         <v>292346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>266210</v>
+        <v>266041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>317998</v>
+        <v>319372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4708901753077965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4287920489019924</v>
+        <v>0.4285192901066907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5122083236491233</v>
+        <v>0.514421938636718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>410</v>
@@ -5329,19 +5329,19 @@
         <v>293240</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>270938</v>
+        <v>272724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>313510</v>
+        <v>315958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4726111048928065</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4366676131588323</v>
+        <v>0.4395462744208006</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5052798502972695</v>
+        <v>0.5092257028212684</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>673</v>
@@ -5350,19 +5350,19 @@
         <v>585586</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>555952</v>
+        <v>551043</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>619072</v>
+        <v>619274</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4717503843843768</v>
+        <v>0.4717503843843771</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4478773722142842</v>
+        <v>0.4439224531472304</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4987266849084213</v>
+        <v>0.4988897798685993</v>
       </c>
     </row>
     <row r="18">
@@ -5379,19 +5379,19 @@
         <v>182355</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>159806</v>
+        <v>158441</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>207310</v>
+        <v>207436</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2937251513795482</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2574044817496193</v>
+        <v>0.255204878831051</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3339208304362915</v>
+        <v>0.334123314131012</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>221</v>
@@ -5400,19 +5400,19 @@
         <v>166631</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>147282</v>
+        <v>147884</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>185977</v>
+        <v>185497</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2685563016804427</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2373731619978188</v>
+        <v>0.2383420012622306</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2997359398389913</v>
+        <v>0.2989628304795409</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>379</v>
@@ -5421,19 +5421,19 @@
         <v>348986</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>317501</v>
+        <v>317875</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>379049</v>
+        <v>380148</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.281144466413211</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2557800902017445</v>
+        <v>0.2560813704014095</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3053635278391861</v>
+        <v>0.3062484012571102</v>
       </c>
     </row>
     <row r="19">
@@ -5450,19 +5450,19 @@
         <v>36001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25854</v>
+        <v>24635</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50614</v>
+        <v>50095</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05798858422645912</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04164456615438011</v>
+        <v>0.03968033391609943</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08152524501399756</v>
+        <v>0.08069019307228806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -5471,19 +5471,19 @@
         <v>28880</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20342</v>
+        <v>20552</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39364</v>
+        <v>38882</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04654496945289813</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03278475377992152</v>
+        <v>0.03312349082805152</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06344179733351629</v>
+        <v>0.06266559139636398</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>68</v>
@@ -5492,19 +5492,19 @@
         <v>64881</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51711</v>
+        <v>51596</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82406</v>
+        <v>83275</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05226847726633015</v>
+        <v>0.05226847726633017</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04165893238771565</v>
+        <v>0.04156567344590936</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06638652416378404</v>
+        <v>0.06708673092713731</v>
       </c>
     </row>
     <row r="20">
@@ -5521,19 +5521,19 @@
         <v>10405</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5152</v>
+        <v>4876</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19951</v>
+        <v>19654</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01676033868657131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008298244894436008</v>
+        <v>0.007854307926959594</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03213602542782684</v>
+        <v>0.03165803200378172</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -5542,19 +5542,19 @@
         <v>4323</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1569</v>
+        <v>1552</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9771</v>
+        <v>9756</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.006968021687756696</v>
+        <v>0.006968021687756695</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002528474091663475</v>
+        <v>0.002500994154997489</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01574811164686789</v>
+        <v>0.01572317583692248</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -5563,19 +5563,19 @@
         <v>14729</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7430</v>
+        <v>8382</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23882</v>
+        <v>24204</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01186563524460299</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005985376011763563</v>
+        <v>0.006752383501869694</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01923948100189064</v>
+        <v>0.0194987921329002</v>
       </c>
     </row>
     <row r="21">
@@ -5667,19 +5667,19 @@
         <v>144228</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122212</v>
+        <v>124054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>165504</v>
+        <v>168767</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2063895100599654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1748834905420461</v>
+        <v>0.1775206151793351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2368342948543317</v>
+        <v>0.2415034638486096</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -5688,19 +5688,19 @@
         <v>195247</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>179211</v>
+        <v>174862</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>214631</v>
+        <v>212078</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2663400919367619</v>
+        <v>0.2663400919367618</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2444651971658557</v>
+        <v>0.2385320427097412</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2927823399654568</v>
+        <v>0.2892996897538965</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>442</v>
@@ -5709,19 +5709,19 @@
         <v>339475</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>314835</v>
+        <v>312148</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>371106</v>
+        <v>366470</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.237081939623654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2198733887737852</v>
+        <v>0.2179969687957927</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2591721840901138</v>
+        <v>0.2559345157171605</v>
       </c>
     </row>
     <row r="23">
@@ -5738,19 +5738,19 @@
         <v>332319</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>303039</v>
+        <v>307895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>357267</v>
+        <v>361922</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4755457735952002</v>
+        <v>0.4755457735952003</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4336459867008195</v>
+        <v>0.4405948637569949</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5112448082848601</v>
+        <v>0.5179070364535614</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>525</v>
@@ -5759,19 +5759,19 @@
         <v>330393</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>309345</v>
+        <v>309364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>352668</v>
+        <v>353306</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4506947855254095</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4219839886118257</v>
+        <v>0.4220087022679815</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4810806724847039</v>
+        <v>0.481951826450179</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>845</v>
@@ -5780,19 +5780,19 @@
         <v>662712</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>624756</v>
+        <v>628659</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>695791</v>
+        <v>698316</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4628230079932316</v>
+        <v>0.4628230079932315</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4363153031498248</v>
+        <v>0.4390408583152712</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4859248087034457</v>
+        <v>0.4876878373643376</v>
       </c>
     </row>
     <row r="24">
@@ -5809,19 +5809,19 @@
         <v>173237</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>152043</v>
+        <v>147517</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>196757</v>
+        <v>195916</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2478998705381096</v>
+        <v>0.2478998705381097</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2175721547550064</v>
+        <v>0.2110952652708758</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2815571140254064</v>
+        <v>0.2803543166008111</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>268</v>
@@ -5830,19 +5830,19 @@
         <v>180047</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>163389</v>
+        <v>161867</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>198990</v>
+        <v>199136</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2456053049519758</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2228816065622884</v>
+        <v>0.2208057653896753</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2714455110416858</v>
+        <v>0.2716454259275158</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>429</v>
@@ -5851,19 +5851,19 @@
         <v>353284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>325468</v>
+        <v>326995</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>385937</v>
+        <v>385993</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2467251397777576</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2272991765551451</v>
+        <v>0.2283657224235008</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2695297642029916</v>
+        <v>0.269568375245247</v>
       </c>
     </row>
     <row r="25">
@@ -5880,19 +5880,19 @@
         <v>41110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30643</v>
+        <v>29828</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57411</v>
+        <v>56405</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05882778339002826</v>
+        <v>0.05882778339002827</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04384993617587466</v>
+        <v>0.04268325186716625</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08215402357029332</v>
+        <v>0.08071504823748503</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -5901,19 +5901,19 @@
         <v>25380</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18447</v>
+        <v>17919</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34388</v>
+        <v>35711</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03462137310668591</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02516333601444218</v>
+        <v>0.02444298675369682</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04690988807455214</v>
+        <v>0.04871450025306388</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>71</v>
@@ -5922,19 +5922,19 @@
         <v>66490</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52358</v>
+        <v>52207</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83718</v>
+        <v>82923</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04643501722575544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03656586187948915</v>
+        <v>0.03646005647350248</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05846688716796086</v>
+        <v>0.05791178841663054</v>
       </c>
     </row>
     <row r="26">
@@ -5951,19 +5951,19 @@
         <v>7923</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3376</v>
+        <v>3351</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14944</v>
+        <v>15849</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01133706241669643</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004831674647473993</v>
+        <v>0.004795195132949476</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0213850383250251</v>
+        <v>0.02267944846875482</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -5975,16 +5975,16 @@
         <v>634</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5409</v>
+        <v>4691</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002738444479166739</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0008649174465812529</v>
+        <v>0.0008645040591757062</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007378916302656847</v>
+        <v>0.006398980513239386</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -5993,19 +5993,19 @@
         <v>9930</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5083</v>
+        <v>4783</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17797</v>
+        <v>17774</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006934895379601421</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003550103174495637</v>
+        <v>0.003340403464889224</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01242903069348865</v>
+        <v>0.01241325723892034</v>
       </c>
     </row>
     <row r="27">
@@ -6097,19 +6097,19 @@
         <v>200255</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>179042</v>
+        <v>178662</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>221321</v>
+        <v>223925</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3295699236733142</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2946589255989868</v>
+        <v>0.294034548181864</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3642405009264333</v>
+        <v>0.3685251582700756</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>446</v>
@@ -6118,19 +6118,19 @@
         <v>270703</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>252311</v>
+        <v>252863</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>289077</v>
+        <v>291363</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4461002534365209</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4157913704004097</v>
+        <v>0.4167007445922747</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4763785216654733</v>
+        <v>0.4801451236218686</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>669</v>
@@ -6139,19 +6139,19 @@
         <v>470958</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>441396</v>
+        <v>445107</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>500289</v>
+        <v>498927</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3877966188045422</v>
+        <v>0.3877966188045421</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3634543130826409</v>
+        <v>0.3665099743170828</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4119483108856452</v>
+        <v>0.4108266074744393</v>
       </c>
     </row>
     <row r="29">
@@ -6168,19 +6168,19 @@
         <v>251757</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>228582</v>
+        <v>227989</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>275270</v>
+        <v>275365</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4143307064971061</v>
+        <v>0.4143307064971062</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3761900424518534</v>
+        <v>0.375214556446463</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4530263253130411</v>
+        <v>0.4531834617290979</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>401</v>
@@ -6189,19 +6189,19 @@
         <v>239249</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>219621</v>
+        <v>220713</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>258552</v>
+        <v>257482</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.394265586643243</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3619206969862376</v>
+        <v>0.3637189772143036</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4260752080442767</v>
+        <v>0.4243124372347827</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>672</v>
@@ -6210,19 +6210,19 @@
         <v>491007</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>464156</v>
+        <v>462523</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>522679</v>
+        <v>520913</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4043047705980444</v>
+        <v>0.4043047705980443</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3821954126117902</v>
+        <v>0.3808505270171328</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4303843366848731</v>
+        <v>0.4289302406203492</v>
       </c>
     </row>
     <row r="30">
@@ -6239,19 +6239,19 @@
         <v>128160</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>109354</v>
+        <v>110487</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>148128</v>
+        <v>148467</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2109202611181563</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1799704122789404</v>
+        <v>0.1818351716375582</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2437824617777966</v>
+        <v>0.2443405541963341</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>137</v>
@@ -6260,19 +6260,19 @@
         <v>87220</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>74229</v>
+        <v>73451</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99806</v>
+        <v>101070</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1437319405701654</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.12232446960543</v>
+        <v>0.1210420946968335</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1644736820867174</v>
+        <v>0.1665566336446725</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>277</v>
@@ -6281,19 +6281,19 @@
         <v>215380</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>192857</v>
+        <v>193374</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>239955</v>
+        <v>239859</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1773482814895334</v>
+        <v>0.1773482814895333</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1588019596446398</v>
+        <v>0.1592277059893455</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1975837302668928</v>
+        <v>0.1975046360263019</v>
       </c>
     </row>
     <row r="31">
@@ -6310,19 +6310,19 @@
         <v>22951</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14801</v>
+        <v>15012</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35304</v>
+        <v>33423</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03777211188507078</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02435837182215283</v>
+        <v>0.02470612717447954</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05810146725492891</v>
+        <v>0.05500531109866652</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -6331,19 +6331,19 @@
         <v>7832</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4241</v>
+        <v>4118</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13602</v>
+        <v>13024</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.01290597638700681</v>
+        <v>0.01290597638700682</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006989179981373433</v>
+        <v>0.006785898235465419</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02241552064315959</v>
+        <v>0.02146326710253185</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>34</v>
@@ -6352,19 +6352,19 @@
         <v>30783</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>21488</v>
+        <v>21007</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42627</v>
+        <v>43035</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.02534725310641892</v>
+        <v>0.02534725310641891</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01769330083896164</v>
+        <v>0.01729765462144403</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0351002491409473</v>
+        <v>0.03543586972340261</v>
       </c>
     </row>
     <row r="32">
@@ -6381,19 +6381,19 @@
         <v>4501</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1600</v>
+        <v>1678</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10072</v>
+        <v>10876</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007406996826352533</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002633941207869752</v>
+        <v>0.002760771786941636</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01657612863806782</v>
+        <v>0.01789980168978542</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -6402,19 +6402,19 @@
         <v>1818</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4887</v>
+        <v>5089</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.002996242963063964</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0007143335185581685</v>
+        <v>0.0007117476802603002</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008053883481436272</v>
+        <v>0.008386542000744568</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -6423,19 +6423,19 @@
         <v>6319</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2938</v>
+        <v>2974</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12242</v>
+        <v>12494</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.005203076001461168</v>
+        <v>0.005203076001461166</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002418914853968127</v>
+        <v>0.002448542068578077</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01008007699849785</v>
+        <v>0.01028770078208224</v>
       </c>
     </row>
     <row r="33">
@@ -6527,19 +6527,19 @@
         <v>204731</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>187179</v>
+        <v>187739</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>222121</v>
+        <v>223022</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5029262809017518</v>
+        <v>0.502926280901752</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4598099262814621</v>
+        <v>0.4611839056743118</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5456452778488735</v>
+        <v>0.5478580839042987</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>484</v>
@@ -6548,19 +6548,19 @@
         <v>258476</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>243242</v>
+        <v>243211</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>273441</v>
+        <v>273931</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5885600588428719</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5538718633620462</v>
+        <v>0.5538008659055621</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6226369689064722</v>
+        <v>0.6237523627762944</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>767</v>
@@ -6569,19 +6569,19 @@
         <v>463207</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>442168</v>
+        <v>442133</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>486552</v>
+        <v>485056</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5473666250595303</v>
+        <v>0.5473666250595304</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5225052483675448</v>
+        <v>0.5224639713909788</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5749529542563744</v>
+        <v>0.5731859755777813</v>
       </c>
     </row>
     <row r="35">
@@ -6598,19 +6598,19 @@
         <v>134389</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>118936</v>
+        <v>118540</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>151305</v>
+        <v>150896</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3301295121530829</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2921678005555434</v>
+        <v>0.2911952410122607</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3716841779887003</v>
+        <v>0.3706783500074499</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>244</v>
@@ -6619,19 +6619,19 @@
         <v>126843</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>113862</v>
+        <v>112589</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>141227</v>
+        <v>139844</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.288828042683959</v>
+        <v>0.2888280426839589</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2592679009146648</v>
+        <v>0.2563698587664795</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3215795878289297</v>
+        <v>0.3184299538377693</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>434</v>
@@ -6640,19 +6640,19 @@
         <v>261233</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>242425</v>
+        <v>240114</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>282930</v>
+        <v>282721</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3086957793252277</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2864709019249422</v>
+        <v>0.2837400479203093</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3343356615890356</v>
+        <v>0.334088592644173</v>
       </c>
     </row>
     <row r="36">
@@ -6669,19 +6669,19 @@
         <v>54411</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>43390</v>
+        <v>43313</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>65623</v>
+        <v>66249</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1336607708101478</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1065889913742458</v>
+        <v>0.1063981966243556</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1612031428062667</v>
+        <v>0.1627426646680547</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>88</v>
@@ -6690,19 +6690,19 @@
         <v>47346</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>39035</v>
+        <v>38703</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>57720</v>
+        <v>56821</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1078078819288315</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08888508311265418</v>
+        <v>0.08812830987762323</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1314313878987634</v>
+        <v>0.1293837197494817</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>166</v>
@@ -6711,19 +6711,19 @@
         <v>101756</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>86749</v>
+        <v>87431</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>118423</v>
+        <v>119074</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1202442042755209</v>
+        <v>0.120244204275521</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1025103743550995</v>
+        <v>0.1033161905731779</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1399393463312856</v>
+        <v>0.1407081150125636</v>
       </c>
     </row>
     <row r="37">
@@ -6740,19 +6740,19 @@
         <v>12880</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8210</v>
+        <v>7750</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20200</v>
+        <v>19884</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.03163942897534823</v>
+        <v>0.03163942897534822</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02016728581357206</v>
+        <v>0.01903699192320699</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04962269296659564</v>
+        <v>0.04884517457895426</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>10</v>
@@ -6761,19 +6761,19 @@
         <v>5836</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2664</v>
+        <v>2940</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10047</v>
+        <v>10382</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01328853102223005</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.006066197492397325</v>
+        <v>0.006694695139994823</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0228783424393435</v>
+        <v>0.02364085268365143</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>28</v>
@@ -6782,19 +6782,19 @@
         <v>18716</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12792</v>
+        <v>12277</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27682</v>
+        <v>26875</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02211608152708338</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01511653353978626</v>
+        <v>0.01450735509378815</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03271105948678869</v>
+        <v>0.03175813087505852</v>
       </c>
     </row>
     <row r="38">
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4431</v>
+        <v>3408</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.001644007159668963</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01088404581824041</v>
+        <v>0.008371739571191708</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3574</v>
+        <v>3354</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0015154855221077</v>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.008138837191197682</v>
+        <v>0.007637810006432054</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4238</v>
+        <v>4641</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.001577309812637621</v>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.005007841905494278</v>
+        <v>0.005484444742961474</v>
       </c>
     </row>
     <row r="39">
@@ -6957,19 +6957,19 @@
         <v>202975</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>189587</v>
+        <v>188602</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>217391</v>
+        <v>217619</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.6555228979065612</v>
+        <v>0.6555228979065609</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6122830814464384</v>
+        <v>0.6091024868657267</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7020777230544443</v>
+        <v>0.7028157612865515</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>624</v>
@@ -6978,19 +6978,19 @@
         <v>328187</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>312980</v>
+        <v>313140</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>341750</v>
+        <v>343429</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.7074056253350669</v>
+        <v>0.7074056253350671</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6746266690344986</v>
+        <v>0.67497151276502</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.7366397044822467</v>
+        <v>0.7402579540662511</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>930</v>
@@ -6999,19 +6999,19 @@
         <v>531162</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>511513</v>
+        <v>511402</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>552286</v>
+        <v>548883</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.6866383950490192</v>
+        <v>0.686638395049019</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6612379717847547</v>
+        <v>0.6610942171719031</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7139459624267989</v>
+        <v>0.7095467935080398</v>
       </c>
     </row>
     <row r="41">
@@ -7028,19 +7028,19 @@
         <v>69497</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>57333</v>
+        <v>57235</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>82001</v>
+        <v>81670</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.2244451566115825</v>
+        <v>0.2244451566115824</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1851596621458491</v>
+        <v>0.1848455133025289</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2648285130147915</v>
+        <v>0.2637582896408346</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>185</v>
@@ -7049,19 +7049,19 @@
         <v>94675</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>82286</v>
+        <v>81940</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>108436</v>
+        <v>107517</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2040714962257243</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1773674160059137</v>
+        <v>0.1766221406312557</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2337330525182334</v>
+        <v>0.231751157894631</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>283</v>
@@ -7070,19 +7070,19 @@
         <v>164172</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>146501</v>
+        <v>147710</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>181642</v>
+        <v>180485</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.212226512701793</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1893834548476718</v>
+        <v>0.1909464349470874</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2348102655858763</v>
+        <v>0.2333146393453838</v>
       </c>
     </row>
     <row r="42">
@@ -7099,19 +7099,19 @@
         <v>32081</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>23861</v>
+        <v>23972</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>43324</v>
+        <v>41372</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.103607880875456</v>
+        <v>0.1036078808754559</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07706179907773528</v>
+        <v>0.077420664795488</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.139917919406037</v>
+        <v>0.1336139632427283</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>57</v>
@@ -7120,19 +7120,19 @@
         <v>31748</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>24660</v>
+        <v>24170</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>41977</v>
+        <v>39910</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06843244198292463</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05315504324472711</v>
+        <v>0.05209861529525885</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09048097142937078</v>
+        <v>0.08602636925026387</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>103</v>
@@ -7141,19 +7141,19 @@
         <v>63829</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>53143</v>
+        <v>52756</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>77802</v>
+        <v>75953</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0825122037090332</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06869838840414458</v>
+        <v>0.06819853800408014</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1005759882846615</v>
+        <v>0.09818507356445076</v>
       </c>
     </row>
     <row r="43">
@@ -7170,19 +7170,19 @@
         <v>5086</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2351</v>
+        <v>2010</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10050</v>
+        <v>10511</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01642406460640054</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.007593114463339435</v>
+        <v>0.00649096363035772</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03245639926088544</v>
+        <v>0.03394666972966499</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -7191,19 +7191,19 @@
         <v>9321</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5511</v>
+        <v>5439</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>17801</v>
+        <v>16023</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.02009043645628405</v>
+        <v>0.02009043645628404</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01187994036979404</v>
+        <v>0.01172293790331041</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03837046781598169</v>
+        <v>0.03453842048377633</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>21</v>
@@ -7212,19 +7212,19 @@
         <v>14406</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>9236</v>
+        <v>8809</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>21757</v>
+        <v>22722</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01862288854015464</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01193911625292901</v>
+        <v>0.01138774336349138</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02812576647071549</v>
+        <v>0.02937309668930214</v>
       </c>
     </row>
     <row r="44">
@@ -7363,19 +7363,19 @@
         <v>920049</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>866279</v>
+        <v>870247</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>972543</v>
+        <v>976781</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2607347003210653</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2454966690308813</v>
+        <v>0.2466212361646926</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2756109251459699</v>
+        <v>0.2768118806199218</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2109</v>
@@ -7384,19 +7384,19 @@
         <v>1283169</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1234476</v>
+        <v>1235415</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1337713</v>
+        <v>1332650</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.3444232161355078</v>
+        <v>0.3444232161355077</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3313531734697762</v>
+        <v>0.3316052080049433</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3590636482107268</v>
+        <v>0.3577046043722024</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>3185</v>
@@ -7405,19 +7405,19 @@
         <v>2203219</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2130243</v>
+        <v>2128942</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2279258</v>
+        <v>2276904</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.3037146102274753</v>
+        <v>0.3037146102274754</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2936549486207495</v>
+        <v>0.2934754890713158</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3141966202053644</v>
+        <v>0.3138721234903977</v>
       </c>
     </row>
     <row r="47">
@@ -7434,19 +7434,19 @@
         <v>1379694</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1320963</v>
+        <v>1314325</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1443705</v>
+        <v>1446314</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3909943760408126</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3743503835075585</v>
+        <v>0.3724691905306807</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.4091345359845913</v>
+        <v>0.4098740225599607</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2077</v>
@@ -7455,19 +7455,19 @@
         <v>1460178</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1411550</v>
+        <v>1406757</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1517239</v>
+        <v>1513970</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3919353052191622</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3788825988120009</v>
+        <v>0.3775961005706415</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4072513876834513</v>
+        <v>0.4063737300462303</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3392</v>
@@ -7476,19 +7476,19 @@
         <v>2839873</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2753831</v>
+        <v>2760130</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2921994</v>
+        <v>2925858</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3914776090258908</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3796167827980209</v>
+        <v>0.380485053854289</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4027981478542629</v>
+        <v>0.403330694195388</v>
       </c>
     </row>
     <row r="48">
@@ -7505,19 +7505,19 @@
         <v>965159</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>911125</v>
+        <v>900257</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1026917</v>
+        <v>1031445</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2735185497675039</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2582055680303896</v>
+        <v>0.2551257176483026</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2910201676234563</v>
+        <v>0.2923034443847444</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1006</v>
@@ -7526,19 +7526,19 @@
         <v>837836</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>788409</v>
+        <v>787645</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>886935</v>
+        <v>886600</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.2248886167343479</v>
+        <v>0.2248886167343478</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2116215881282599</v>
+        <v>0.2114166384948405</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2380674965910909</v>
+        <v>0.2379777091844666</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1789</v>
@@ -7547,19 +7547,19 @@
         <v>1802995</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1724803</v>
+        <v>1723515</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1887028</v>
+        <v>1884755</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2485436757339618</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2377648427067661</v>
+        <v>0.2375873139568923</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2601276179664405</v>
+        <v>0.2598143114581076</v>
       </c>
     </row>
     <row r="49">
@@ -7576,19 +7576,19 @@
         <v>227382</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>194025</v>
+        <v>192265</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>266394</v>
+        <v>267329</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.06443826065997407</v>
+        <v>0.06443826065997409</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.05498521399000175</v>
+        <v>0.05448641664261396</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.07549403445542145</v>
+        <v>0.07575905575100997</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>144</v>
@@ -7597,19 +7597,19 @@
         <v>131262</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>110093</v>
+        <v>109022</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>155816</v>
+        <v>153840</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.03523282406308954</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02955065575929502</v>
+        <v>0.0292632379281908</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04182339983232367</v>
+        <v>0.04129305806133043</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>313</v>
@@ -7618,19 +7618,19 @@
         <v>358644</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>315273</v>
+        <v>317587</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>404918</v>
+        <v>403058</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.04943922499187056</v>
+        <v>0.04943922499187055</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.04346051094019831</v>
+        <v>0.04377949167726652</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.05581813880055709</v>
+        <v>0.05556170784499188</v>
       </c>
     </row>
     <row r="50">
@@ -7647,19 +7647,19 @@
         <v>36395</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>23824</v>
+        <v>24193</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>51490</v>
+        <v>51781</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01031411321064403</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.006751488965446452</v>
+        <v>0.006855978295337424</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01459198327878657</v>
+        <v>0.01467444744378342</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>14</v>
@@ -7668,19 +7668,19 @@
         <v>13114</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>6784</v>
+        <v>7376</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>21996</v>
+        <v>24862</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.003520037847892551</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.001820935737681776</v>
+        <v>0.001979880631581533</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.005904093920959978</v>
+        <v>0.006673492657280265</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>42</v>
@@ -7689,19 +7689,19 @@
         <v>49509</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>34901</v>
+        <v>35399</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>68255</v>
+        <v>68458</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.006824880020801445</v>
+        <v>0.006824880020801444</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.004811113188083626</v>
+        <v>0.004879817470543998</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0094089856250461</v>
+        <v>0.009436912887289721</v>
       </c>
     </row>
     <row r="51">
